--- a/Country-data-master.xlsx
+++ b/Country-data-master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonah\OneDrive\Documents\GitHub\social-connectedness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD771183-12D4-4265-9D03-96BAD376537F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666BEA7A-08E7-462E-800E-3738A05819EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="4524" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master table" sheetId="3" r:id="rId1"/>
@@ -5971,8 +5971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L217"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
